--- a/TestData/Data.XLSX
+++ b/TestData/Data.XLSX
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{217EFFBA-B16F-48B9-934C-3BA5C758E611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F468C705-9F0C-4412-B49D-7DE66EAD4948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="16540" windowHeight="11060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="17260" windowHeight="11060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,41 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Shyam@1234</t>
+  </si>
+  <si>
+    <t>7869877617</t>
+  </si>
+  <si>
+    <t>shuklashyam54@gmail.com</t>
+  </si>
+  <si>
+    <t>7869842343</t>
+  </si>
+  <si>
+    <t>560103</t>
+  </si>
+  <si>
+    <t>Bellendur</t>
+  </si>
+  <si>
+    <t>V Raj Sunshine Apartment</t>
+  </si>
+  <si>
+    <t>Near Hospital</t>
+  </si>
+  <si>
+    <t>7869654576</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,9 +95,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,35 +484,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" customWidth="1"/>
+    <col min="2" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1">
-        <v>7869877617</v>
-      </c>
-      <c r="B1">
-        <v>7869877617</v>
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>7869877617</v>
-      </c>
-      <c r="B2">
-        <v>7869877617</v>
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{37DBF1BB-455C-4F04-AE6A-77726E3B1477}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{BD11C176-6E4C-43AE-8FC7-3F2658E7D2BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
